--- a/multi.xlsx
+++ b/multi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fusha\Desktop\Multi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92BBBEB-E9F9-4F16-9A3A-ADD8AF3D62A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2068AB93-D25F-4016-8C50-1DB61FEB7F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{51916A93-D2B7-406C-B51A-EA9F523D45DE}"/>
   </bookViews>
@@ -824,23 +824,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,26 +854,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -51127,7 +51127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D1E6C8-36C1-4406-8C6F-FD807145A722}">
   <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
@@ -51392,18 +51392,18 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="L5" t="s">
         <v>15</v>
       </c>
@@ -51510,138 +51510,138 @@
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="L10" s="55" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="L10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="56" t="b">
+      <c r="A11" s="64" t="b">
         <f ca="1">ROUND(RAND()*1,0)=1</f>
         <v>1</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="L11" s="56">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="L11" s="64">
         <f ca="1">ROUND(RAND()*63,0)</f>
-        <v>60</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="L12" s="56">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="L12" s="64">
         <f ca="1">ROUND(RAND()*63,0)</f>
-        <v>41</v>
-      </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
+        <v>49</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="56">
+      <c r="A13" s="64">
         <f ca="1">ROUND(RAND()*10,0)</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="27">
@@ -51804,18 +51804,18 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="27">
@@ -51882,16 +51882,16 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
       <c r="L25" t="s">
         <v>32</v>
       </c>
@@ -51903,31 +51903,31 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="L26" s="58" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="L26" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
       <c r="X26">
         <v>410</v>
       </c>
@@ -52083,43 +52083,43 @@
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="B30" s="66">
+      <c r="B30" s="57">
         <v>210</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="57">
         <v>8</v>
       </c>
-      <c r="L30" s="67">
-        <v>4</v>
-      </c>
-      <c r="M30" s="68">
-        <v>0</v>
-      </c>
-      <c r="N30" s="67">
-        <v>0</v>
-      </c>
-      <c r="O30" s="67">
+      <c r="L30" s="58">
+        <v>4</v>
+      </c>
+      <c r="M30" s="59">
+        <v>0</v>
+      </c>
+      <c r="N30" s="58">
+        <v>0</v>
+      </c>
+      <c r="O30" s="58">
         <v>32</v>
       </c>
-      <c r="P30" s="67">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="67">
-        <v>5</v>
-      </c>
-      <c r="R30" s="67">
+      <c r="P30" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="58">
+        <v>5</v>
+      </c>
+      <c r="R30" s="58">
         <v>44</v>
       </c>
-      <c r="S30" s="67">
+      <c r="S30" s="58">
         <v>22</v>
       </c>
-      <c r="T30" s="67">
+      <c r="T30" s="58">
         <v>32</v>
       </c>
-      <c r="U30" s="67">
+      <c r="U30" s="58">
         <v>10</v>
       </c>
-      <c r="V30" s="67">
+      <c r="V30" s="58">
         <v>32</v>
       </c>
       <c r="X30">
@@ -52296,19 +52296,19 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="L36" s="58" t="s">
+      <c r="L36" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
       <c r="X36">
         <v>334</v>
       </c>
@@ -52669,19 +52669,19 @@
       </c>
     </row>
     <row r="45" spans="2:25">
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="62"/>
       <c r="X45">
         <v>312</v>
       </c>
@@ -53042,19 +53042,19 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="L54" s="59" t="s">
+      <c r="L54" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="62"/>
       <c r="X54">
         <v>288</v>
       </c>
@@ -53163,43 +53163,43 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="66">
+      <c r="B57" s="57">
         <v>288</v>
       </c>
-      <c r="C57" s="66">
+      <c r="C57" s="57">
         <v>6</v>
       </c>
-      <c r="L57" s="67">
-        <v>3</v>
-      </c>
-      <c r="M57" s="68">
-        <v>0</v>
-      </c>
-      <c r="N57" s="67">
-        <v>0</v>
-      </c>
-      <c r="O57" s="67">
+      <c r="L57" s="58">
+        <v>3</v>
+      </c>
+      <c r="M57" s="59">
+        <v>0</v>
+      </c>
+      <c r="N57" s="58">
+        <v>0</v>
+      </c>
+      <c r="O57" s="58">
         <v>6</v>
       </c>
-      <c r="P57" s="67">
+      <c r="P57" s="58">
         <v>62</v>
       </c>
-      <c r="Q57" s="67">
+      <c r="Q57" s="58">
         <v>46</v>
       </c>
-      <c r="R57" s="67">
+      <c r="R57" s="58">
         <v>14</v>
       </c>
-      <c r="S57" s="67">
-        <v>5</v>
-      </c>
-      <c r="T57" s="67">
+      <c r="S57" s="58">
+        <v>5</v>
+      </c>
+      <c r="T57" s="58">
         <v>34</v>
       </c>
-      <c r="U57" s="67">
+      <c r="U57" s="58">
         <v>32</v>
       </c>
-      <c r="V57" s="67">
+      <c r="V57" s="58">
         <v>22</v>
       </c>
       <c r="X57">
@@ -53415,19 +53415,19 @@
       </c>
     </row>
     <row r="63" spans="2:25">
-      <c r="L63" s="59" t="s">
+      <c r="L63" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="62"/>
       <c r="X63">
         <v>278</v>
       </c>
@@ -53788,19 +53788,19 @@
       </c>
     </row>
     <row r="72" spans="2:25">
-      <c r="L72" s="59" t="s">
+      <c r="L72" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="62"/>
       <c r="X72">
         <v>210</v>
       </c>
@@ -54161,19 +54161,19 @@
       </c>
     </row>
     <row r="81" spans="2:25">
-      <c r="L81" s="59" t="s">
+      <c r="L81" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="60"/>
-      <c r="T81" s="60"/>
-      <c r="U81" s="60"/>
-      <c r="V81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="62"/>
       <c r="X81">
         <v>210</v>
       </c>
@@ -54270,43 +54270,43 @@
       </c>
     </row>
     <row r="84" spans="2:25">
-      <c r="B84" s="66">
+      <c r="B84" s="57">
         <v>248</v>
       </c>
-      <c r="C84" s="66">
+      <c r="C84" s="57">
         <v>7</v>
       </c>
-      <c r="L84" s="67">
-        <v>3</v>
-      </c>
-      <c r="M84" s="68">
-        <v>0</v>
-      </c>
-      <c r="N84" s="67">
-        <v>0</v>
-      </c>
-      <c r="O84" s="67">
+      <c r="L84" s="58">
+        <v>3</v>
+      </c>
+      <c r="M84" s="59">
+        <v>0</v>
+      </c>
+      <c r="N84" s="58">
+        <v>0</v>
+      </c>
+      <c r="O84" s="58">
         <v>6</v>
       </c>
-      <c r="P84" s="67">
+      <c r="P84" s="58">
         <v>44</v>
       </c>
-      <c r="Q84" s="67">
+      <c r="Q84" s="58">
         <v>35</v>
       </c>
-      <c r="R84" s="67">
+      <c r="R84" s="58">
         <v>10</v>
       </c>
-      <c r="S84" s="67">
+      <c r="S84" s="58">
         <v>34</v>
       </c>
-      <c r="T84" s="67">
+      <c r="T84" s="58">
         <v>36</v>
       </c>
-      <c r="U84" s="67">
+      <c r="U84" s="58">
         <v>22</v>
       </c>
-      <c r="V84" s="67">
+      <c r="V84" s="58">
         <v>32</v>
       </c>
     </row>
@@ -54486,58 +54486,58 @@
       </c>
     </row>
     <row r="90" spans="2:25">
-      <c r="L90" s="59" t="s">
+      <c r="L90" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="60"/>
-      <c r="T90" s="60"/>
-      <c r="U90" s="60"/>
-      <c r="V90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="62"/>
     </row>
     <row r="91" spans="2:25">
-      <c r="B91" s="66">
+      <c r="B91" s="57">
         <v>302</v>
       </c>
-      <c r="C91" s="66">
-        <v>5</v>
-      </c>
-      <c r="L91" s="67">
-        <v>1</v>
-      </c>
-      <c r="M91" s="68">
-        <v>0</v>
-      </c>
-      <c r="N91" s="67">
-        <v>0</v>
-      </c>
-      <c r="O91" s="67">
+      <c r="C91" s="57">
+        <v>5</v>
+      </c>
+      <c r="L91" s="58">
+        <v>1</v>
+      </c>
+      <c r="M91" s="59">
+        <v>0</v>
+      </c>
+      <c r="N91" s="58">
+        <v>0</v>
+      </c>
+      <c r="O91" s="58">
         <v>32</v>
       </c>
-      <c r="P91" s="67">
+      <c r="P91" s="58">
         <v>42</v>
       </c>
-      <c r="Q91" s="67">
+      <c r="Q91" s="58">
         <v>60</v>
       </c>
-      <c r="R91" s="67">
+      <c r="R91" s="58">
         <v>24</v>
       </c>
-      <c r="S91" s="67">
-        <v>5</v>
-      </c>
-      <c r="T91" s="67">
+      <c r="S91" s="58">
+        <v>5</v>
+      </c>
+      <c r="T91" s="58">
         <v>39</v>
       </c>
-      <c r="U91" s="67">
+      <c r="U91" s="58">
         <v>37</v>
       </c>
-      <c r="V91" s="67">
+      <c r="V91" s="58">
         <v>26</v>
       </c>
     </row>
@@ -54792,17 +54792,7 @@
     <sortCondition descending="1" ref="X26:X96"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="L90:V90"/>
-    <mergeCell ref="L45:V45"/>
-    <mergeCell ref="L54:V54"/>
-    <mergeCell ref="L63:V63"/>
-    <mergeCell ref="L72:V72"/>
-    <mergeCell ref="L81:V81"/>
-    <mergeCell ref="L26:V26"/>
-    <mergeCell ref="L36:V36"/>
-    <mergeCell ref="L11:U11"/>
-    <mergeCell ref="L10:U10"/>
-    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A5:J5"/>
@@ -54812,7 +54802,17 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="L26:V26"/>
+    <mergeCell ref="L36:V36"/>
+    <mergeCell ref="L11:U11"/>
+    <mergeCell ref="L10:U10"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="L90:V90"/>
+    <mergeCell ref="L45:V45"/>
+    <mergeCell ref="L54:V54"/>
+    <mergeCell ref="L63:V63"/>
+    <mergeCell ref="L72:V72"/>
+    <mergeCell ref="L81:V81"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
